--- a/data/pca/factorExposure/factorExposure_2017-09-25.xlsx
+++ b/data/pca/factorExposure/factorExposure_2017-09-25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>factor1</t>
   </si>
@@ -26,6 +26,12 @@
   </si>
   <si>
     <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -692,13 +698,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E104"/>
+  <dimension ref="A1:G104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -711,61 +717,85 @@
       <c r="E1" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B2">
-        <v>0.02333984881705272</v>
+        <v>0.007264570294263426</v>
       </c>
       <c r="C2">
-        <v>0.0008518977297317701</v>
+        <v>-0.03852032863608967</v>
       </c>
       <c r="D2">
-        <v>-0.01383919723629431</v>
+        <v>-0.02911260361464078</v>
       </c>
       <c r="E2">
-        <v>0.01103219106323754</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
+        <v>-0.02496031755540072</v>
+      </c>
+      <c r="F2">
+        <v>0.02534528945566855</v>
+      </c>
+      <c r="G2">
+        <v>-0.02873709079297715</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B3">
-        <v>0.01291290615110212</v>
+        <v>0.05367391404756953</v>
       </c>
       <c r="C3">
-        <v>-0.04180507816613063</v>
+        <v>-0.0773907476053549</v>
       </c>
       <c r="D3">
-        <v>-0.01915491889723767</v>
+        <v>-0.01428405226308663</v>
       </c>
       <c r="E3">
-        <v>0.007567111827945004</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
+        <v>-0.08605588379416307</v>
+      </c>
+      <c r="F3">
+        <v>0.06901130074985955</v>
+      </c>
+      <c r="G3">
+        <v>-0.06813648779572354</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B4">
-        <v>0.02208677192214283</v>
+        <v>0.05906359070743603</v>
       </c>
       <c r="C4">
-        <v>-0.01042972287646288</v>
+        <v>-0.06188820558980115</v>
       </c>
       <c r="D4">
-        <v>-0.06415159537326191</v>
+        <v>-0.02250941613420271</v>
       </c>
       <c r="E4">
-        <v>-0.0150075456718331</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
+        <v>-0.01091303417857297</v>
+      </c>
+      <c r="F4">
+        <v>0.008584936678833964</v>
+      </c>
+      <c r="G4">
+        <v>-0.04885141070988715</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -779,163 +809,223 @@
       <c r="E5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:5">
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B6">
-        <v>0.01520271542105248</v>
+        <v>0.03308002943472797</v>
       </c>
       <c r="C6">
-        <v>-0.0131923557311366</v>
+        <v>-0.05131215641398971</v>
       </c>
       <c r="D6">
-        <v>-0.08215355768620218</v>
+        <v>-0.01599304420709705</v>
       </c>
       <c r="E6">
-        <v>-0.00282001607629114</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
+        <v>-0.01183174012356345</v>
+      </c>
+      <c r="F6">
+        <v>0.009259900951586386</v>
+      </c>
+      <c r="G6">
+        <v>-0.03072728185779153</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B7">
-        <v>0.01003397010867769</v>
+        <v>0.01660065259310567</v>
       </c>
       <c r="C7">
-        <v>-3.908164868231759e-05</v>
+        <v>-0.03650573255489103</v>
       </c>
       <c r="D7">
-        <v>-0.0350969110266461</v>
+        <v>-0.01301722355073475</v>
       </c>
       <c r="E7">
-        <v>-0.07065138022307993</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
+        <v>0.0121332227760787</v>
+      </c>
+      <c r="F7">
+        <v>0.00136262889640421</v>
+      </c>
+      <c r="G7">
+        <v>-0.08155240313685043</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B8">
-        <v>-0.0002032958184985163</v>
+        <v>-0.00275226524565161</v>
       </c>
       <c r="C8">
-        <v>0.007217484538328729</v>
+        <v>-0.01881711105498494</v>
       </c>
       <c r="D8">
-        <v>-0.006326206174247138</v>
+        <v>-0.00394821894884905</v>
       </c>
       <c r="E8">
-        <v>-0.008872545448511612</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
+        <v>-0.02153166202618353</v>
+      </c>
+      <c r="F8">
+        <v>0.02285854476047314</v>
+      </c>
+      <c r="G8">
+        <v>-0.02381639515605071</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B9">
-        <v>0.01458911567356665</v>
+        <v>0.03131151314253654</v>
       </c>
       <c r="C9">
-        <v>-0.01056989504236326</v>
+        <v>-0.04318409032473852</v>
       </c>
       <c r="D9">
-        <v>-0.04786516414054921</v>
+        <v>-0.01583986037862331</v>
       </c>
       <c r="E9">
-        <v>-0.004732712809350071</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
+        <v>-0.01105709992238965</v>
+      </c>
+      <c r="F9">
+        <v>0.01582780846895552</v>
+      </c>
+      <c r="G9">
+        <v>-0.03995736855341769</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B10">
-        <v>0.01143542094054662</v>
+        <v>0.09061036680666815</v>
       </c>
       <c r="C10">
-        <v>-0.168369645979495</v>
+        <v>0.1839109710515478</v>
       </c>
       <c r="D10">
-        <v>0.1088154906829838</v>
+        <v>0.01811309761031953</v>
       </c>
       <c r="E10">
-        <v>-0.01576894103771472</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
+        <v>-0.01127925630978883</v>
+      </c>
+      <c r="F10">
+        <v>-0.01329912639347455</v>
+      </c>
+      <c r="G10">
+        <v>-0.0408719608633895</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B11">
-        <v>5.724643000201774e-05</v>
+        <v>0.03330111314549439</v>
       </c>
       <c r="C11">
-        <v>-0.001049037822866187</v>
+        <v>-0.05301691035430624</v>
       </c>
       <c r="D11">
-        <v>-0.04353286431920727</v>
+        <v>-0.001804360178743777</v>
       </c>
       <c r="E11">
-        <v>0.009850286026496576</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
+        <v>-0.001887803122650973</v>
+      </c>
+      <c r="F11">
+        <v>0.01862701206792779</v>
+      </c>
+      <c r="G11">
+        <v>-0.0230053954627211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B12">
-        <v>0.005472987987036002</v>
+        <v>0.0314471855876014</v>
       </c>
       <c r="C12">
-        <v>-0.009438710493624264</v>
+        <v>-0.04486357146093443</v>
       </c>
       <c r="D12">
-        <v>-0.04582439836008328</v>
+        <v>-0.005953971066501427</v>
       </c>
       <c r="E12">
-        <v>0.001408384882545692</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
+        <v>0.003775591962170088</v>
+      </c>
+      <c r="F12">
+        <v>0.005038728545365502</v>
+      </c>
+      <c r="G12">
+        <v>-0.02709296509072148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B13">
-        <v>0.0211748834056673</v>
+        <v>0.013900407131297</v>
       </c>
       <c r="C13">
-        <v>-0.01138753777631639</v>
+        <v>-0.03207131285023932</v>
       </c>
       <c r="D13">
-        <v>-0.01513716458005711</v>
+        <v>-0.02475533204727964</v>
       </c>
       <c r="E13">
-        <v>0.007188502313529003</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
+        <v>-0.0195403984364264</v>
+      </c>
+      <c r="F13">
+        <v>0.01575761730652603</v>
+      </c>
+      <c r="G13">
+        <v>-0.03465327737498151</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B14">
-        <v>0.006962972864713742</v>
+        <v>0.007076305922841085</v>
       </c>
       <c r="C14">
-        <v>-0.01080895931471428</v>
+        <v>-0.02669393230493938</v>
       </c>
       <c r="D14">
-        <v>-0.0165402594141737</v>
+        <v>-0.00872252508902681</v>
       </c>
       <c r="E14">
-        <v>-0.01119802214403248</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
+        <v>0.007255199811385518</v>
+      </c>
+      <c r="F14">
+        <v>-0.002999006602415347</v>
+      </c>
+      <c r="G14">
+        <v>-0.04128637882163713</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -949,27 +1039,39 @@
       <c r="E15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:5">
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B16">
-        <v>0.0006014026352524499</v>
+        <v>0.03105556718778453</v>
       </c>
       <c r="C16">
-        <v>-0.008583558681392543</v>
+        <v>-0.04369130216603593</v>
       </c>
       <c r="D16">
-        <v>-0.04676922681328594</v>
+        <v>-0.001369750519026576</v>
       </c>
       <c r="E16">
-        <v>0.003165036283851912</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
+        <v>-0.004123529080878282</v>
+      </c>
+      <c r="F16">
+        <v>0.008456028414445354</v>
+      </c>
+      <c r="G16">
+        <v>-0.02501600737844164</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -983,10 +1085,16 @@
       <c r="E17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1000,61 +1108,85 @@
       <c r="E18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:5">
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B19">
-        <v>0.01299800901590237</v>
+        <v>0.02456848748275595</v>
       </c>
       <c r="C19">
-        <v>-0.02194641072900038</v>
+        <v>-0.04910173476436046</v>
       </c>
       <c r="D19">
-        <v>-0.02823589105648469</v>
+        <v>-0.01605575422231134</v>
       </c>
       <c r="E19">
-        <v>-0.006092984979167407</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
+        <v>-0.05022622601049879</v>
+      </c>
+      <c r="F19">
+        <v>0.03226256300865672</v>
+      </c>
+      <c r="G19">
+        <v>-0.049829731119771</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B20">
-        <v>0.01018265680045175</v>
+        <v>0.01153932685479457</v>
       </c>
       <c r="C20">
-        <v>-0.004878801712130046</v>
+        <v>-0.03430173607259093</v>
       </c>
       <c r="D20">
-        <v>-0.01239955872804503</v>
+        <v>-0.01301929486311689</v>
       </c>
       <c r="E20">
-        <v>-0.0003855151443853512</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
+        <v>-0.02076873580720483</v>
+      </c>
+      <c r="F20">
+        <v>-0.0005185601383124443</v>
+      </c>
+      <c r="G20">
+        <v>-0.03955474718630251</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B21">
-        <v>0.01397680190080748</v>
+        <v>0.01385367469413921</v>
       </c>
       <c r="C21">
-        <v>-0.03065524527494146</v>
+        <v>-0.03657542649323516</v>
       </c>
       <c r="D21">
-        <v>-0.02569006458586853</v>
+        <v>-0.01634215081825723</v>
       </c>
       <c r="E21">
-        <v>-0.01804253390001308</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
+        <v>-0.02875141755299122</v>
+      </c>
+      <c r="F21">
+        <v>0.01004672286788092</v>
+      </c>
+      <c r="G21">
+        <v>-0.06021972837317751</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1068,10 +1200,16 @@
       <c r="E22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:5">
+      <c r="F22">
+        <v>0</v>
+      </c>
+      <c r="G22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1085,61 +1223,85 @@
       <c r="E23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:5">
+      <c r="F23">
+        <v>0</v>
+      </c>
+      <c r="G23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B24">
-        <v>0.004650254378243566</v>
+        <v>0.02542989748498066</v>
       </c>
       <c r="C24">
-        <v>-0.0009362107992925186</v>
+        <v>-0.04652803337556986</v>
       </c>
       <c r="D24">
-        <v>-0.04343600506858246</v>
+        <v>-0.006799153659699014</v>
       </c>
       <c r="E24">
-        <v>0.004173245114870927</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
+        <v>0.0002990715652702517</v>
+      </c>
+      <c r="F24">
+        <v>0.01643757516797245</v>
+      </c>
+      <c r="G24">
+        <v>-0.02702491142432181</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B25">
-        <v>0.01110301277214061</v>
+        <v>0.0417902677992677</v>
       </c>
       <c r="C25">
-        <v>-0.01751811397683084</v>
+        <v>-0.05365960777723607</v>
       </c>
       <c r="D25">
-        <v>-0.04505444097647263</v>
+        <v>-0.01082917209909977</v>
       </c>
       <c r="E25">
-        <v>0.003205420493575138</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
+        <v>0.006895942885052835</v>
+      </c>
+      <c r="F25">
+        <v>0.01075756918501185</v>
+      </c>
+      <c r="G25">
+        <v>-0.03299905736098008</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B26">
-        <v>0.02237041744919414</v>
+        <v>0.01051771594829542</v>
       </c>
       <c r="C26">
-        <v>-0.008360375695012662</v>
+        <v>-0.009290298173653786</v>
       </c>
       <c r="D26">
-        <v>0.005296586452444184</v>
+        <v>-0.0237543753419568</v>
       </c>
       <c r="E26">
-        <v>-0.01002347323967081</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
+        <v>-0.005462630877953948</v>
+      </c>
+      <c r="F26">
+        <v>0.0017986088303718</v>
+      </c>
+      <c r="G26">
+        <v>-0.03200221579446761</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1153,129 +1315,177 @@
       <c r="E27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:5">
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B28">
-        <v>0.02997582670484038</v>
+        <v>0.1150261148660834</v>
       </c>
       <c r="C28">
-        <v>-0.248173699619994</v>
+        <v>0.226808755577934</v>
       </c>
       <c r="D28">
-        <v>0.1531096968194207</v>
+        <v>0.009075994309039879</v>
       </c>
       <c r="E28">
-        <v>-0.02632341670625952</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
+        <v>0.001066481623287765</v>
+      </c>
+      <c r="F28">
+        <v>-0.01139943725186945</v>
+      </c>
+      <c r="G28">
+        <v>-0.06034560983544436</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B29">
-        <v>0.007234966526693765</v>
+        <v>0.01224467409675984</v>
       </c>
       <c r="C29">
-        <v>-0.01621339988031642</v>
+        <v>-0.02052076962215792</v>
       </c>
       <c r="D29">
-        <v>-0.01457593949233828</v>
+        <v>-0.007378505363900069</v>
       </c>
       <c r="E29">
-        <v>-0.007277070604140224</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
+        <v>0.009075023892024204</v>
+      </c>
+      <c r="F29">
+        <v>-0.01288275511187984</v>
+      </c>
+      <c r="G29">
+        <v>-0.03180742475603387</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B30">
-        <v>0.02293704901384425</v>
+        <v>0.04550298924421066</v>
       </c>
       <c r="C30">
-        <v>0.004773762556652083</v>
+        <v>-0.06579362330937122</v>
       </c>
       <c r="D30">
-        <v>-0.06347812882941242</v>
+        <v>-0.02704400730608475</v>
       </c>
       <c r="E30">
-        <v>0.058632639113071</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
+        <v>-0.03389528428973343</v>
+      </c>
+      <c r="F30">
+        <v>0.04892647096247969</v>
+      </c>
+      <c r="G30">
+        <v>-0.009374555795361278</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B31">
-        <v>0.00734661232959455</v>
+        <v>0.04553058203705773</v>
       </c>
       <c r="C31">
-        <v>-0.04133664197744606</v>
+        <v>-0.03151679850283853</v>
       </c>
       <c r="D31">
-        <v>-0.04489245770289591</v>
+        <v>-0.00334711153884256</v>
       </c>
       <c r="E31">
-        <v>-0.005735571743202814</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
+        <v>0.006964702905016983</v>
+      </c>
+      <c r="F31">
+        <v>-0.03414903319259603</v>
+      </c>
+      <c r="G31">
+        <v>-0.02807408049620084</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B32">
-        <v>-0.007352867413453814</v>
+        <v>-0.001505297497213479</v>
       </c>
       <c r="C32">
-        <v>-0.0162771171483788</v>
+        <v>-0.03215382404141401</v>
       </c>
       <c r="D32">
-        <v>-0.002157712793334579</v>
+        <v>0.004335061218250224</v>
       </c>
       <c r="E32">
-        <v>-0.03074099739568322</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
+        <v>-0.006845748278681028</v>
+      </c>
+      <c r="F32">
+        <v>0.04712986787636723</v>
+      </c>
+      <c r="G32">
+        <v>-0.05915676508907786</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B33">
-        <v>0.01204263486213311</v>
+        <v>0.02615424909342266</v>
       </c>
       <c r="C33">
-        <v>-0.02062570854726927</v>
+        <v>-0.04794318545712306</v>
       </c>
       <c r="D33">
-        <v>-0.02510590457156885</v>
+        <v>-0.01424129295936615</v>
       </c>
       <c r="E33">
-        <v>0.02223926099276228</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
+        <v>-0.02010669286906102</v>
+      </c>
+      <c r="F33">
+        <v>0.02683637464259655</v>
+      </c>
+      <c r="G33">
+        <v>-0.03677518975035041</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B34">
-        <v>-0.004947826014875967</v>
+        <v>0.04403827661285847</v>
       </c>
       <c r="C34">
-        <v>-0.01557623129428088</v>
+        <v>-0.05419527865309481</v>
       </c>
       <c r="D34">
-        <v>-0.04956385295331588</v>
+        <v>0.005391053662383813</v>
       </c>
       <c r="E34">
-        <v>-0.004341351899636818</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
+        <v>0.009746773049052034</v>
+      </c>
+      <c r="F34">
+        <v>0.01835005064322492</v>
+      </c>
+      <c r="G34">
+        <v>-0.03821000272724785</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1289,27 +1499,39 @@
       <c r="E35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:5">
+      <c r="F35">
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B36">
-        <v>0.01168884133455633</v>
+        <v>0.01075769875550561</v>
       </c>
       <c r="C36">
-        <v>-0.01698800312529396</v>
+        <v>-0.00770346348593558</v>
       </c>
       <c r="D36">
-        <v>-0.002853055165504217</v>
+        <v>-0.01148392657361879</v>
       </c>
       <c r="E36">
-        <v>-0.003310794039852591</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
+        <v>-0.001067190120985683</v>
+      </c>
+      <c r="F36">
+        <v>-0.004031537494856202</v>
+      </c>
+      <c r="G36">
+        <v>-0.02521018466784342</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1323,129 +1545,177 @@
       <c r="E37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:5">
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B38">
-        <v>-0.005942790750022612</v>
+        <v>0.03181933734837844</v>
       </c>
       <c r="C38">
-        <v>-0.02819992822345578</v>
+        <v>-0.0268502945957683</v>
       </c>
       <c r="D38">
-        <v>-0.02080921116126284</v>
+        <v>0.007717576160756752</v>
       </c>
       <c r="E38">
-        <v>-0.004200105070408672</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5">
+        <v>-0.002865171685161129</v>
+      </c>
+      <c r="F38">
+        <v>-0.006888447947260214</v>
+      </c>
+      <c r="G38">
+        <v>-0.03376072029186987</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B39">
-        <v>0.005596088849048959</v>
+        <v>0.03083617171061751</v>
       </c>
       <c r="C39">
-        <v>0.02708139147344205</v>
+        <v>-0.08002001390710092</v>
       </c>
       <c r="D39">
-        <v>-0.08826520854470592</v>
+        <v>-0.01202342863286579</v>
       </c>
       <c r="E39">
-        <v>0.01160518468788082</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5">
+        <v>-0.02106629137911859</v>
+      </c>
+      <c r="F39">
+        <v>0.03843169602518739</v>
+      </c>
+      <c r="G39">
+        <v>-0.02888005473357867</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B40">
-        <v>0.009994169131594538</v>
+        <v>0.02053767348037848</v>
       </c>
       <c r="C40">
-        <v>-0.008694494975142483</v>
+        <v>-0.03091602220467454</v>
       </c>
       <c r="D40">
-        <v>-0.039160415035739</v>
+        <v>-0.01281546701298529</v>
       </c>
       <c r="E40">
-        <v>0.006622319860512965</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5">
+        <v>-0.01704321777016319</v>
+      </c>
+      <c r="F40">
+        <v>0.01903553367870912</v>
+      </c>
+      <c r="G40">
+        <v>-0.0257345160564097</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
       <c r="A41" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B41">
-        <v>0.005078554854132306</v>
+        <v>0.01239655286005059</v>
       </c>
       <c r="C41">
-        <v>-0.02176611614763004</v>
+        <v>0.0005150365736471137</v>
       </c>
       <c r="D41">
-        <v>0.007924591704525918</v>
+        <v>-0.003600502973052636</v>
       </c>
       <c r="E41">
-        <v>-0.00464818152780577</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5">
+        <v>0.002773210906296307</v>
+      </c>
+      <c r="F41">
+        <v>-0.0008616255974495214</v>
+      </c>
+      <c r="G41">
+        <v>-0.01721373577275348</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
       <c r="A42" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B42">
-        <v>0.09413397084201083</v>
+        <v>0.01768078279044115</v>
       </c>
       <c r="C42">
-        <v>0.01529151671959693</v>
+        <v>-0.04364880232369059</v>
       </c>
       <c r="D42">
-        <v>-0.262019922639775</v>
+        <v>-0.09518760188955308</v>
       </c>
       <c r="E42">
-        <v>0.2979986793605419</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5">
+        <v>-0.04079687428768001</v>
+      </c>
+      <c r="F42">
+        <v>-0.04516435211361144</v>
+      </c>
+      <c r="G42">
+        <v>0.1718809638815362</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
       <c r="A43" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B43">
-        <v>0.005968201448649674</v>
+        <v>0.02863238194743501</v>
       </c>
       <c r="C43">
-        <v>-0.02171022656841128</v>
+        <v>-0.01079194740975483</v>
       </c>
       <c r="D43">
-        <v>0.01227627456104608</v>
+        <v>-0.004091310604551153</v>
       </c>
       <c r="E43">
-        <v>-6.397878668870798e-05</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5">
+        <v>-0.003555773005152787</v>
+      </c>
+      <c r="F43">
+        <v>-0.002090604109332647</v>
+      </c>
+      <c r="G43">
+        <v>-0.02228225472251179</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
       <c r="A44" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B44">
-        <v>0.002802580269414677</v>
+        <v>0.01524706201257204</v>
       </c>
       <c r="C44">
-        <v>0.001477350983072792</v>
+        <v>-0.04978622997277699</v>
       </c>
       <c r="D44">
-        <v>-0.02616821690697562</v>
+        <v>-0.00619507506018964</v>
       </c>
       <c r="E44">
-        <v>-0.002895173383333929</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5">
+        <v>-0.01474699000781624</v>
+      </c>
+      <c r="F44">
+        <v>0.004849809185651241</v>
+      </c>
+      <c r="G44">
+        <v>-0.03938673176566185</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
       <c r="A45" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1459,61 +1729,85 @@
       <c r="E45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:5">
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
       <c r="A46" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B46">
-        <v>0.01046004431016273</v>
+        <v>0.005767421791812652</v>
       </c>
       <c r="C46">
-        <v>-0.01811983754179745</v>
+        <v>-0.0169046768240815</v>
       </c>
       <c r="D46">
-        <v>-0.01348127996881448</v>
+        <v>-0.01145639904641645</v>
       </c>
       <c r="E46">
-        <v>-0.002422366681516284</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5">
+        <v>0.004064431417267738</v>
+      </c>
+      <c r="F46">
+        <v>-0.01418025616409985</v>
+      </c>
+      <c r="G46">
+        <v>-0.02824762380675762</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
       <c r="A47" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B47">
-        <v>0.00130999834385212</v>
+        <v>0.0736120737595472</v>
       </c>
       <c r="C47">
-        <v>-0.05152180310871333</v>
+        <v>-0.06403722564919601</v>
       </c>
       <c r="D47">
-        <v>-0.05840840034332341</v>
+        <v>0.00506236488243806</v>
       </c>
       <c r="E47">
-        <v>0.004211203699753262</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5">
+        <v>0.007793897417696255</v>
+      </c>
+      <c r="F47">
+        <v>-0.05532397262476114</v>
+      </c>
+      <c r="G47">
+        <v>-0.02565196788822128</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
       <c r="A48" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B48">
-        <v>0.002481040161685185</v>
+        <v>0.02142348391976903</v>
       </c>
       <c r="C48">
-        <v>-0.02489346107173549</v>
+        <v>-0.01039537085636623</v>
       </c>
       <c r="D48">
-        <v>-0.01355875614320391</v>
+        <v>-0.0008171291395640688</v>
       </c>
       <c r="E48">
-        <v>-0.00185619376226936</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5">
+        <v>0.003136725187286199</v>
+      </c>
+      <c r="F48">
+        <v>-0.01337900584825938</v>
+      </c>
+      <c r="G48">
+        <v>-0.03020091058892984</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
       <c r="A49" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1527,44 +1821,62 @@
       <c r="E49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:5">
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
       <c r="A50" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B50">
-        <v>0.002360491621630306</v>
+        <v>0.07814895030199182</v>
       </c>
       <c r="C50">
-        <v>-0.04119725361617533</v>
+        <v>-0.06605974899320599</v>
       </c>
       <c r="D50">
-        <v>-0.06558473126578475</v>
+        <v>0.003501937161736519</v>
       </c>
       <c r="E50">
-        <v>-0.02280676670726283</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5">
+        <v>0.01101864646977183</v>
+      </c>
+      <c r="F50">
+        <v>-0.05228398487873075</v>
+      </c>
+      <c r="G50">
+        <v>-0.04928951891304236</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
       <c r="A51" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B51">
-        <v>0.006860361584124888</v>
+        <v>0.01022900856529235</v>
       </c>
       <c r="C51">
-        <v>-0.01976167922013419</v>
+        <v>-0.02693708494691053</v>
       </c>
       <c r="D51">
-        <v>0.01093403599848021</v>
+        <v>-0.00898322402503981</v>
       </c>
       <c r="E51">
-        <v>-0.01038839869488161</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5">
+        <v>-0.006986817597723487</v>
+      </c>
+      <c r="F51">
+        <v>0.02180556291475074</v>
+      </c>
+      <c r="G51">
+        <v>-0.05415795983613042</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
       <c r="A52" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1578,163 +1890,223 @@
       <c r="E52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:5">
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7">
       <c r="A53" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B53">
-        <v>0.00403512954710262</v>
+        <v>0.09188453327749957</v>
       </c>
       <c r="C53">
-        <v>-0.06149816321133239</v>
+        <v>-0.08146731975287994</v>
       </c>
       <c r="D53">
-        <v>-0.1152942865758407</v>
+        <v>0.005076614549322622</v>
       </c>
       <c r="E53">
-        <v>-0.001157150967393503</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5">
+        <v>0.03954455193240477</v>
+      </c>
+      <c r="F53">
+        <v>-0.06767618236741471</v>
+      </c>
+      <c r="G53">
+        <v>-0.02722613764975325</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7">
       <c r="A54" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B54">
-        <v>-0.001015983288934797</v>
+        <v>0.02774910581188429</v>
       </c>
       <c r="C54">
-        <v>-0.03415678369089813</v>
+        <v>-0.01028406623969614</v>
       </c>
       <c r="D54">
-        <v>0.005171419490636209</v>
+        <v>0.002890411237045875</v>
       </c>
       <c r="E54">
-        <v>-0.01131288238623196</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5">
+        <v>-0.001159953311048053</v>
+      </c>
+      <c r="F54">
+        <v>-0.002769223754799361</v>
+      </c>
+      <c r="G54">
+        <v>-0.03474181784312864</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7">
       <c r="A55" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B55">
-        <v>0.001661353841404729</v>
+        <v>0.07206010926446986</v>
       </c>
       <c r="C55">
-        <v>-0.04429210654217501</v>
+        <v>-0.07260826671627621</v>
       </c>
       <c r="D55">
-        <v>-0.09836754134288528</v>
+        <v>0.0046740121477302</v>
       </c>
       <c r="E55">
-        <v>0.0106894820238478</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5">
+        <v>0.02576012342121384</v>
+      </c>
+      <c r="F55">
+        <v>-0.0596925315282428</v>
+      </c>
+      <c r="G55">
+        <v>-0.01186880697730762</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7">
       <c r="A56" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B56">
-        <v>0.0008783141914498372</v>
+        <v>0.143886733164882</v>
       </c>
       <c r="C56">
-        <v>-0.07901967471685477</v>
+        <v>-0.1042330688776774</v>
       </c>
       <c r="D56">
-        <v>-0.147259012808941</v>
+        <v>0.01348748313459146</v>
       </c>
       <c r="E56">
-        <v>0.01048359581239255</v>
-      </c>
-    </row>
-    <row r="57" spans="1:5">
+        <v>0.0347562447484572</v>
+      </c>
+      <c r="F56">
+        <v>-0.09253438695835368</v>
+      </c>
+      <c r="G56">
+        <v>0.0002211570312587561</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7">
       <c r="A57" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B57">
-        <v>0.02302087960690266</v>
+        <v>0.01061321795983181</v>
       </c>
       <c r="C57">
-        <v>-0.01907897720830315</v>
+        <v>-0.01001197652943399</v>
       </c>
       <c r="D57">
-        <v>-0.0361319781842034</v>
+        <v>-0.02349014594943643</v>
       </c>
       <c r="E57">
-        <v>0.009681643136531576</v>
-      </c>
-    </row>
-    <row r="58" spans="1:5">
+        <v>-0.02677143553565218</v>
+      </c>
+      <c r="F57">
+        <v>0.0171388623426127</v>
+      </c>
+      <c r="G57">
+        <v>-0.02017282714781946</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7">
       <c r="A58" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B58">
-        <v>0.01029550052470647</v>
+        <v>0.08706684453204046</v>
       </c>
       <c r="C58">
-        <v>-0.09076337501115528</v>
+        <v>-0.0437487304864802</v>
       </c>
       <c r="D58">
-        <v>-0.1052035122909051</v>
+        <v>-0.01214041625280156</v>
       </c>
       <c r="E58">
-        <v>0.2019197248743696</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5">
+        <v>-0.9579231944331099</v>
+      </c>
+      <c r="F58">
+        <v>-0.1701014141686008</v>
+      </c>
+      <c r="G58">
+        <v>-0.003835105321188035</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7">
       <c r="A59" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B59">
-        <v>0.02593009867070421</v>
+        <v>0.1544076021857149</v>
       </c>
       <c r="C59">
-        <v>-0.2566684391229971</v>
+        <v>0.2114427427951545</v>
       </c>
       <c r="D59">
-        <v>0.1524794222644137</v>
+        <v>0.01609392135712435</v>
       </c>
       <c r="E59">
-        <v>-0.002488883330484128</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5">
+        <v>-0.008971014741549226</v>
+      </c>
+      <c r="F59">
+        <v>0.006930902338696936</v>
+      </c>
+      <c r="G59">
+        <v>-0.02178902457163046</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7">
       <c r="A60" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B60">
-        <v>0.03128907369735032</v>
+        <v>0.2921904815681894</v>
       </c>
       <c r="C60">
-        <v>-0.1545331348998674</v>
+        <v>-0.09862148634043795</v>
       </c>
       <c r="D60">
-        <v>-0.09770267727128525</v>
+        <v>-0.01000504233048853</v>
       </c>
       <c r="E60">
-        <v>0.04743039121652902</v>
-      </c>
-    </row>
-    <row r="61" spans="1:5">
+        <v>0.02346526369505998</v>
+      </c>
+      <c r="F60">
+        <v>0.3649003116480946</v>
+      </c>
+      <c r="G60">
+        <v>0.08459977104629048</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7">
       <c r="A61" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B61">
-        <v>0.002887924152992441</v>
+        <v>0.03219181446350249</v>
       </c>
       <c r="C61">
-        <v>-0.002417629635890609</v>
+        <v>-0.06443468890985446</v>
       </c>
       <c r="D61">
-        <v>-0.0656665629752344</v>
+        <v>-0.005316387019773937</v>
       </c>
       <c r="E61">
-        <v>0.006613349989774823</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5">
+        <v>-0.008716546163643812</v>
+      </c>
+      <c r="F61">
+        <v>0.02051310350154105</v>
+      </c>
+      <c r="G61">
+        <v>-0.026768162360988</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7">
       <c r="A62" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1748,129 +2120,177 @@
       <c r="E62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:5">
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7">
       <c r="A63" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B63">
-        <v>0.007055533255123197</v>
+        <v>0.01118034868024093</v>
       </c>
       <c r="C63">
-        <v>-0.005857059886634102</v>
+        <v>-0.02876308074525658</v>
       </c>
       <c r="D63">
-        <v>-0.007753580424457444</v>
+        <v>-0.008173882246675689</v>
       </c>
       <c r="E63">
-        <v>-0.009354482513657614</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5">
+        <v>0.007218813287698527</v>
+      </c>
+      <c r="F63">
+        <v>-0.01800691038298905</v>
+      </c>
+      <c r="G63">
+        <v>-0.03699876515784932</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7">
       <c r="A64" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B64">
-        <v>0.00695896067224958</v>
+        <v>0.05162150265861313</v>
       </c>
       <c r="C64">
-        <v>-0.02457765556742422</v>
+        <v>-0.04027266369514319</v>
       </c>
       <c r="D64">
-        <v>-0.06928223512445814</v>
+        <v>-0.005071180994628499</v>
       </c>
       <c r="E64">
-        <v>0.01053377983459131</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5">
+        <v>0.006619788562667889</v>
+      </c>
+      <c r="F64">
+        <v>0.004747950707725259</v>
+      </c>
+      <c r="G64">
+        <v>-0.02340137500668647</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7">
       <c r="A65" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B65">
-        <v>0.01754418528232829</v>
+        <v>0.08346138901692648</v>
       </c>
       <c r="C65">
-        <v>-0.01667788285165311</v>
+        <v>-0.06282882328343251</v>
       </c>
       <c r="D65">
-        <v>-0.09447900994780352</v>
+        <v>-0.01515946387145324</v>
       </c>
       <c r="E65">
-        <v>-4.426445480625987e-05</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5">
+        <v>-0.01249619787784416</v>
+      </c>
+      <c r="F65">
+        <v>0.03099393262759734</v>
+      </c>
+      <c r="G65">
+        <v>-0.01508930408166969</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7">
       <c r="A66" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B66">
-        <v>0.005224105409137098</v>
+        <v>0.05225175364039007</v>
       </c>
       <c r="C66">
-        <v>0.01929584905389309</v>
+        <v>-0.1127830397701417</v>
       </c>
       <c r="D66">
-        <v>-0.1138046616489337</v>
+        <v>-0.01148992790097006</v>
       </c>
       <c r="E66">
-        <v>0.02704041681908432</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5">
+        <v>-0.02301683394408202</v>
+      </c>
+      <c r="F66">
+        <v>0.0466062364131249</v>
+      </c>
+      <c r="G66">
+        <v>-0.02161189973447064</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7">
       <c r="A67" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B67">
-        <v>-0.0007575291171812955</v>
+        <v>0.05516203255064269</v>
       </c>
       <c r="C67">
-        <v>-0.04525465187472421</v>
+        <v>-0.03135326949051118</v>
       </c>
       <c r="D67">
-        <v>-0.02844918685879079</v>
+        <v>0.005947886496965665</v>
       </c>
       <c r="E67">
-        <v>-0.001831278921505221</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5">
+        <v>0.003836347301063559</v>
+      </c>
+      <c r="F67">
+        <v>-0.007835074928439717</v>
+      </c>
+      <c r="G67">
+        <v>-0.03158205941041967</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7">
       <c r="A68" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B68">
-        <v>0.04430998365981216</v>
+        <v>0.1372627992353153</v>
       </c>
       <c r="C68">
-        <v>-0.2322122021577495</v>
+        <v>0.2703430973732779</v>
       </c>
       <c r="D68">
-        <v>0.1449900945442975</v>
+        <v>-0.001956383338898068</v>
       </c>
       <c r="E68">
-        <v>0.004697003337834124</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5">
+        <v>-0.009042004213168588</v>
+      </c>
+      <c r="F68">
+        <v>-0.03860606059320924</v>
+      </c>
+      <c r="G68">
+        <v>-0.02314243766505163</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7">
       <c r="A69" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B69">
-        <v>-0.003305333270420482</v>
+        <v>0.07720079661927833</v>
       </c>
       <c r="C69">
-        <v>-0.03634260017824972</v>
+        <v>-0.06504995681254308</v>
       </c>
       <c r="D69">
-        <v>-0.0626767548569489</v>
+        <v>0.00896444182991485</v>
       </c>
       <c r="E69">
-        <v>-0.0009183508967473643</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5">
+        <v>0.02723641425829479</v>
+      </c>
+      <c r="F69">
+        <v>-0.04210679968502313</v>
+      </c>
+      <c r="G69">
+        <v>-0.02720731089158113</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7">
       <c r="A70" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1884,146 +2304,200 @@
       <c r="E70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:5">
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7">
       <c r="A71" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B71">
-        <v>0.03105627049113625</v>
+        <v>0.1356333791817216</v>
       </c>
       <c r="C71">
-        <v>-0.2048547721706049</v>
+        <v>0.2338816893926556</v>
       </c>
       <c r="D71">
-        <v>0.1348184590601502</v>
+        <v>0.007380744243006823</v>
       </c>
       <c r="E71">
-        <v>-0.01077551247487717</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5">
+        <v>-0.0208313556910288</v>
+      </c>
+      <c r="F71">
+        <v>-0.01071557416216912</v>
+      </c>
+      <c r="G71">
+        <v>-0.03431838655119987</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7">
       <c r="A72" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B72">
-        <v>-0.002482653122337593</v>
+        <v>0.08183209929253986</v>
       </c>
       <c r="C72">
-        <v>-0.03684860584514783</v>
+        <v>-0.07360760599758147</v>
       </c>
       <c r="D72">
-        <v>-0.1329419637059916</v>
+        <v>0.008346115255230399</v>
       </c>
       <c r="E72">
-        <v>0.02905484130835644</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5">
+        <v>0.0130413649174645</v>
+      </c>
+      <c r="F72">
+        <v>0.03572847176425165</v>
+      </c>
+      <c r="G72">
+        <v>-0.005461323359256018</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7">
       <c r="A73" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B73">
-        <v>0.04508962719156806</v>
+        <v>0.3962137829257145</v>
       </c>
       <c r="C73">
-        <v>-0.1811830496207886</v>
+        <v>-0.105257346917912</v>
       </c>
       <c r="D73">
-        <v>-0.1656507145448547</v>
+        <v>-0.01541458700019385</v>
       </c>
       <c r="E73">
-        <v>0.1082831498235502</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5">
+        <v>-0.02629697763643958</v>
+      </c>
+      <c r="F73">
+        <v>0.5587394204510859</v>
+      </c>
+      <c r="G73">
+        <v>0.1329583135462515</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7">
       <c r="A74" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B74">
-        <v>-0.0007551231153996429</v>
+        <v>0.1161439242157328</v>
       </c>
       <c r="C74">
-        <v>-0.07195945316340403</v>
+        <v>-0.1181319648533809</v>
       </c>
       <c r="D74">
-        <v>-0.1508967983444046</v>
+        <v>0.0102544218160483</v>
       </c>
       <c r="E74">
-        <v>0.018771330438948</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5">
+        <v>0.01984828774939842</v>
+      </c>
+      <c r="F74">
+        <v>-0.08238819656184908</v>
+      </c>
+      <c r="G74">
+        <v>-0.03300893446309543</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B75">
-        <v>0.002535538359219063</v>
+        <v>0.2570160824041137</v>
       </c>
       <c r="C75">
-        <v>-0.1748058935822918</v>
+        <v>-0.1522808777973389</v>
       </c>
       <c r="D75">
-        <v>-0.279273688776706</v>
+        <v>0.03100817959796768</v>
       </c>
       <c r="E75">
-        <v>0.04501357995958413</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5">
+        <v>0.0556770197478729</v>
+      </c>
+      <c r="F75">
+        <v>-0.2001863117718965</v>
+      </c>
+      <c r="G75">
+        <v>0.04228327281048654</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7">
       <c r="A76" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B76">
-        <v>-0.004517261545884554</v>
+        <v>0.134067969806548</v>
       </c>
       <c r="C76">
-        <v>-0.1216093537991927</v>
+        <v>-0.1247637825103355</v>
       </c>
       <c r="D76">
-        <v>-0.2383578384136749</v>
+        <v>0.02111105194219394</v>
       </c>
       <c r="E76">
-        <v>0.004570965045186462</v>
-      </c>
-    </row>
-    <row r="77" spans="1:5">
+        <v>0.05128887418327816</v>
+      </c>
+      <c r="F76">
+        <v>-0.1347375724851867</v>
+      </c>
+      <c r="G76">
+        <v>-0.01368277685787794</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7">
       <c r="A77" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B77">
-        <v>0.0108976864122694</v>
+        <v>0.06539985776339532</v>
       </c>
       <c r="C77">
-        <v>-0.008776073145748376</v>
+        <v>-0.0640803109615587</v>
       </c>
       <c r="D77">
-        <v>-0.06253493627168376</v>
+        <v>-0.01219385810193364</v>
       </c>
       <c r="E77">
-        <v>0.002238581252678526</v>
-      </c>
-    </row>
-    <row r="78" spans="1:5">
+        <v>-0.04676584581074705</v>
+      </c>
+      <c r="F77">
+        <v>0.01679914793778785</v>
+      </c>
+      <c r="G77">
+        <v>-0.0534144276389483</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7">
       <c r="A78" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B78">
-        <v>0.003588324789247796</v>
+        <v>0.04019522069418652</v>
       </c>
       <c r="C78">
-        <v>-0.002543944688848446</v>
+        <v>-0.05080508849240791</v>
       </c>
       <c r="D78">
-        <v>-0.06625871505563796</v>
+        <v>-0.005637962135076023</v>
       </c>
       <c r="E78">
-        <v>0.003572377383211704</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5">
+        <v>-0.02008260063403263</v>
+      </c>
+      <c r="F78">
+        <v>0.04123963271321845</v>
+      </c>
+      <c r="G78">
+        <v>-0.03599319247298377</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7">
       <c r="A79" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2037,78 +2511,108 @@
       <c r="E79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:5">
+      <c r="F79">
+        <v>0</v>
+      </c>
+      <c r="G79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7">
       <c r="A80" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B80">
-        <v>0.01509611678525068</v>
+        <v>0.05798804109465425</v>
       </c>
       <c r="C80">
-        <v>-0.1170025623812147</v>
+        <v>-0.0665917242811631</v>
       </c>
       <c r="D80">
-        <v>-0.2296325996023214</v>
+        <v>-0.01298721003982987</v>
       </c>
       <c r="E80">
-        <v>-0.8988844888855965</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5">
+        <v>0.03746477161922437</v>
+      </c>
+      <c r="F80">
+        <v>0.03523997635298976</v>
+      </c>
+      <c r="G80">
+        <v>-0.9098016564683822</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7">
       <c r="A81" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B81">
-        <v>0.002634581974540076</v>
+        <v>0.1460979911266199</v>
       </c>
       <c r="C81">
-        <v>-0.1146349495502313</v>
+        <v>-0.09462820544379195</v>
       </c>
       <c r="D81">
-        <v>-0.1738004559653633</v>
+        <v>0.01565649019346791</v>
       </c>
       <c r="E81">
-        <v>0.01922361485270101</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5">
+        <v>0.03012526457369553</v>
+      </c>
+      <c r="F81">
+        <v>-0.1307972277690359</v>
+      </c>
+      <c r="G81">
+        <v>-0.01184378653612142</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7">
       <c r="A82" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B82">
-        <v>0</v>
+        <v>0.05402840795567903</v>
       </c>
       <c r="C82">
-        <v>0</v>
+        <v>-0.04147553472010993</v>
       </c>
       <c r="D82">
-        <v>0</v>
+        <v>0.002545947368116587</v>
       </c>
       <c r="E82">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="83" spans="1:5">
+        <v>0.02231473096127988</v>
+      </c>
+      <c r="F82">
+        <v>-0.01273838995794889</v>
+      </c>
+      <c r="G82">
+        <v>0.006363613370017181</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7">
       <c r="A83" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B83">
-        <v>0.006403488144691999</v>
+        <v>0.02810464696768199</v>
       </c>
       <c r="C83">
-        <v>-0.02505263592699973</v>
+        <v>-0.01935249448736616</v>
       </c>
       <c r="D83">
-        <v>-0.02509725647885686</v>
+        <v>-0.004888961051790578</v>
       </c>
       <c r="E83">
-        <v>0.005787430507889782</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5">
+        <v>-0.02533886061755128</v>
+      </c>
+      <c r="F83">
+        <v>0.02290747414769068</v>
+      </c>
+      <c r="G83">
+        <v>-0.02275461652136737</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7">
       <c r="A84" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2122,197 +2626,269 @@
       <c r="E84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:5">
+      <c r="F84">
+        <v>0</v>
+      </c>
+      <c r="G84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7">
       <c r="A85" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B85">
-        <v>0.01029335706604703</v>
+        <v>0.2321737983451868</v>
       </c>
       <c r="C85">
-        <v>-0.1355644114236715</v>
+        <v>-0.1514935380557591</v>
       </c>
       <c r="D85">
-        <v>-0.2684802541678942</v>
+        <v>0.01931980594849852</v>
       </c>
       <c r="E85">
-        <v>0.04510064709189109</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5">
+        <v>0.1052442832816989</v>
+      </c>
+      <c r="F85">
+        <v>-0.1826581638786356</v>
+      </c>
+      <c r="G85">
+        <v>0.06115930560439108</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7">
       <c r="A86" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B86">
-        <v>0.006629711066651239</v>
+        <v>0.009659254570124568</v>
       </c>
       <c r="C86">
-        <v>-0.02603625041924941</v>
+        <v>-0.01422039352279685</v>
       </c>
       <c r="D86">
-        <v>-0.01011173782522222</v>
+        <v>-0.009408659991179782</v>
       </c>
       <c r="E86">
-        <v>0.02089974623447523</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5">
+        <v>-0.02744785354839728</v>
+      </c>
+      <c r="F86">
+        <v>0.0323692288715459</v>
+      </c>
+      <c r="G86">
+        <v>-0.05334986913145349</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7">
       <c r="A87" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B87">
-        <v>0.007069020486168252</v>
+        <v>0.01938792512675406</v>
       </c>
       <c r="C87">
-        <v>-0.007463003479519467</v>
+        <v>-0.02516214620367598</v>
       </c>
       <c r="D87">
-        <v>-0.03868703935786954</v>
+        <v>-0.01037334480059404</v>
       </c>
       <c r="E87">
-        <v>0.005888033030477846</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5">
+        <v>-0.08348190509233683</v>
+      </c>
+      <c r="F87">
+        <v>0.03147285664802259</v>
+      </c>
+      <c r="G87">
+        <v>-0.04638172703830699</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7">
       <c r="A88" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B88">
-        <v>0.02620744916650239</v>
+        <v>0.09120687823172122</v>
       </c>
       <c r="C88">
-        <v>-0.03761616274631631</v>
+        <v>-0.06031012697014877</v>
       </c>
       <c r="D88">
-        <v>-0.03330514365692744</v>
+        <v>-0.02197254798421719</v>
       </c>
       <c r="E88">
-        <v>0.004890536084467823</v>
-      </c>
-    </row>
-    <row r="89" spans="1:5">
+        <v>0.01223328588206511</v>
+      </c>
+      <c r="F88">
+        <v>-0.00755924834946401</v>
+      </c>
+      <c r="G88">
+        <v>-0.02356106947747779</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7">
       <c r="A89" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B89">
-        <v>0.05963916470595602</v>
+        <v>0.2250938638823213</v>
       </c>
       <c r="C89">
-        <v>-0.3775471290498128</v>
+        <v>0.3673851198911099</v>
       </c>
       <c r="D89">
-        <v>0.2178247354824387</v>
+        <v>0.007018697750799561</v>
       </c>
       <c r="E89">
-        <v>0.008210684123050462</v>
-      </c>
-    </row>
-    <row r="90" spans="1:5">
+        <v>0.02192340262530757</v>
+      </c>
+      <c r="F89">
+        <v>-0.03478454653295345</v>
+      </c>
+      <c r="G89">
+        <v>-0.03069622837354459</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7">
       <c r="A90" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B90">
-        <v>0.04538676431696952</v>
+        <v>0.1951126384974371</v>
       </c>
       <c r="C90">
-        <v>-0.2945404348898711</v>
+        <v>0.3322852745240455</v>
       </c>
       <c r="D90">
-        <v>0.2109698628730893</v>
+        <v>0.01054627485626991</v>
       </c>
       <c r="E90">
-        <v>0.01056184834453877</v>
-      </c>
-    </row>
-    <row r="91" spans="1:5">
+        <v>0.01302963745136865</v>
+      </c>
+      <c r="F90">
+        <v>-0.05159373143405049</v>
+      </c>
+      <c r="G90">
+        <v>-0.0004385185955460474</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7">
       <c r="A91" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B91">
-        <v>-0.001037318126663629</v>
+        <v>0.2045048958252561</v>
       </c>
       <c r="C91">
-        <v>-0.1414922724122589</v>
+        <v>-0.1387638986814467</v>
       </c>
       <c r="D91">
-        <v>-0.2498141353945886</v>
+        <v>0.02467396167441102</v>
       </c>
       <c r="E91">
-        <v>0.02433830663787843</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
+        <v>0.07270527401838447</v>
+      </c>
+      <c r="F91">
+        <v>-0.1759640861663215</v>
+      </c>
+      <c r="G91">
+        <v>-0.0002982088677414586</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7">
       <c r="A92" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B92">
-        <v>0.0111705364357348</v>
+        <v>0.2034590420155219</v>
       </c>
       <c r="C92">
-        <v>-0.3317709238031938</v>
+        <v>0.2590015006417546</v>
       </c>
       <c r="D92">
-        <v>0.07035923893390639</v>
+        <v>0.0485833677424012</v>
       </c>
       <c r="E92">
-        <v>0.009463301491424329</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
+        <v>0.0009557576325544358</v>
+      </c>
+      <c r="F92">
+        <v>-0.1068693114717994</v>
+      </c>
+      <c r="G92">
+        <v>-0.06266013871960927</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7">
       <c r="A93" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B93">
-        <v>0.04291349414924743</v>
+        <v>0.2248333817071503</v>
       </c>
       <c r="C93">
-        <v>-0.3295447111959954</v>
+        <v>0.3319395073085328</v>
       </c>
       <c r="D93">
-        <v>0.2032959857343882</v>
+        <v>0.01802388034976595</v>
       </c>
       <c r="E93">
-        <v>0.03496055648936555</v>
-      </c>
-    </row>
-    <row r="94" spans="1:5">
+        <v>0.0003113672588208255</v>
+      </c>
+      <c r="F93">
+        <v>-0.03633299189984504</v>
+      </c>
+      <c r="G93">
+        <v>0.003566507932565346</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7">
       <c r="A94" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B94">
-        <v>0.02085550749900274</v>
+        <v>0.2867022356274356</v>
       </c>
       <c r="C94">
-        <v>-0.1870648315408635</v>
+        <v>-0.1806388703642605</v>
       </c>
       <c r="D94">
-        <v>-0.2530630503437953</v>
+        <v>0.01319608532669974</v>
       </c>
       <c r="E94">
-        <v>0.07088104803284181</v>
-      </c>
-    </row>
-    <row r="95" spans="1:5">
+        <v>0.09933917925584441</v>
+      </c>
+      <c r="F94">
+        <v>-0.4502888587344353</v>
+      </c>
+      <c r="G94">
+        <v>0.1417277498196516</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7">
       <c r="A95" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B95">
-        <v>-0.005790729727024681</v>
+        <v>0.07992556017230394</v>
       </c>
       <c r="C95">
-        <v>-0.03984302826067196</v>
+        <v>-0.06888539516793495</v>
       </c>
       <c r="D95">
-        <v>-0.0833608481476758</v>
+        <v>0.00759670606112673</v>
       </c>
       <c r="E95">
-        <v>0.1201606586462982</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
+        <v>-0.06940104013131532</v>
+      </c>
+      <c r="F95">
+        <v>0.1706849772955408</v>
+      </c>
+      <c r="G95">
+        <v>0.0612629582125666</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7">
       <c r="A96" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2326,10 +2902,16 @@
       <c r="E96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:5">
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7">
       <c r="A97" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2343,27 +2925,39 @@
       <c r="E97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:5">
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7">
       <c r="A98" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B98">
-        <v>0.005740338935495398</v>
+        <v>0.2070819549433527</v>
       </c>
       <c r="C98">
-        <v>-0.1521522738991616</v>
+        <v>-0.04273264474333116</v>
       </c>
       <c r="D98">
-        <v>-0.1236805815891833</v>
+        <v>0.01623029261124906</v>
       </c>
       <c r="E98">
-        <v>0.06737325287257807</v>
-      </c>
-    </row>
-    <row r="99" spans="1:5">
+        <v>-0.04738367834836711</v>
+      </c>
+      <c r="F98">
+        <v>0.2605114390852772</v>
+      </c>
+      <c r="G98">
+        <v>0.0305837769526665</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7">
       <c r="A99" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2377,10 +2971,16 @@
       <c r="E99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:5">
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7">
       <c r="A100" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2394,73 +2994,103 @@
       <c r="E100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:5">
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7">
       <c r="A101" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B101">
-        <v>0.007079784520532603</v>
+        <v>0.01209989859076617</v>
       </c>
       <c r="C101">
-        <v>-0.01670274188074808</v>
+        <v>-0.02063438054246086</v>
       </c>
       <c r="D101">
-        <v>-0.01522563283058588</v>
+        <v>-0.007169355125095164</v>
       </c>
       <c r="E101">
-        <v>-0.00742011198632465</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5">
+        <v>0.009456545240941795</v>
+      </c>
+      <c r="F101">
+        <v>-0.01467932398630373</v>
+      </c>
+      <c r="G101">
+        <v>-0.03178797146870926</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7">
       <c r="A102" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B102">
-        <v>0.0145246270667001</v>
+        <v>0.1213651898684023</v>
       </c>
       <c r="C102">
-        <v>-0.08641740689245689</v>
+        <v>-0.08326958548840049</v>
       </c>
       <c r="D102">
-        <v>-0.1349427464376119</v>
+        <v>-0.0006866771528509352</v>
       </c>
       <c r="E102">
-        <v>0.0227145162598087</v>
-      </c>
-    </row>
-    <row r="103" spans="1:5">
+        <v>0.03522500044276439</v>
+      </c>
+      <c r="F102">
+        <v>-0.04923004888355616</v>
+      </c>
+      <c r="G102">
+        <v>0.008073401580171384</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7">
       <c r="A103" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B103">
-        <v>0.001768926018470128</v>
+        <v>0.004358893790045385</v>
       </c>
       <c r="C103">
-        <v>-0.01270553947480853</v>
+        <v>-0.005339562098696181</v>
       </c>
       <c r="D103">
-        <v>-0.02983026455575036</v>
+        <v>-0.0004027478568505931</v>
       </c>
       <c r="E103">
-        <v>-0.01246348445241316</v>
-      </c>
-    </row>
-    <row r="104" spans="1:5">
+        <v>-0.002300533986167072</v>
+      </c>
+      <c r="F103">
+        <v>-0.009618031276523036</v>
+      </c>
+      <c r="G103">
+        <v>-0.01735286305008316</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7">
       <c r="A104" s="1" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B104">
-        <v>0.9838326937585619</v>
+        <v>0.03354398591642086</v>
       </c>
       <c r="C104">
-        <v>0.1160604574768345</v>
+        <v>0.03982131487275913</v>
       </c>
       <c r="D104">
-        <v>0.01335159348624509</v>
+        <v>-0.9873245092473176</v>
       </c>
       <c r="E104">
-        <v>-0.02801268043754114</v>
+        <v>0.03292101742979297</v>
+      </c>
+      <c r="F104">
+        <v>-0.04454678231876326</v>
+      </c>
+      <c r="G104">
+        <v>0.008148261780684504</v>
       </c>
     </row>
   </sheetData>
